--- a/results/MLP_tree/hidden_size_256/s_MLP_tree_t_simglucose_data_insilico_seed_8_2024-05-30_PH_30/output.xlsx
+++ b/results/MLP_tree/hidden_size_256/s_MLP_tree_t_simglucose_data_insilico_seed_8_2024-05-30_PH_30/output.xlsx
@@ -483,12 +483,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.0057758363</t>
+          <t>0.004492997</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.055776846</t>
+          <t>0.058742948</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -515,19 +515,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.003994937</t>
+          <t>0.0026159636</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.048086587</t>
+          <t>0.043101393</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -547,12 +547,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.020681554</t>
+          <t>0.0182439</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.116484866</t>
+          <t>0.095944926</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -579,12 +579,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.02168735</t>
+          <t>0.02224592</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.10891499</t>
+          <t>0.11196612</t>
         </is>
       </c>
       <c r="D5" t="n">
